--- a/Analyzed/try8/data_2023.xlsx
+++ b/Analyzed/try8/data_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AI11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,72 +440,97 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>caseA_rank</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>caseC_rank</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>caseZ_rank</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>Rank</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>caseA_rankdif</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>caseB_rankdif</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>caseC_rankdif</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>caseD_rankdif</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>caseX_rankdif</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>caseY_rankdif</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>caseZ_rankdif</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>ACXZcomb</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>AXcomb</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>AZcomb</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>CXcomb</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>CZcomb</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>XZcomb</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AZhapdif</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>CZhapdif</t>
         </is>
       </c>
     </row>
@@ -540,13 +565,13 @@
         <v>62.64</v>
       </c>
       <c r="J2">
-        <v>513</v>
+        <v>764.2898100000001</v>
       </c>
       <c r="K2">
         <v>1973.91</v>
       </c>
       <c r="L2">
-        <v>574.5599999999999</v>
+        <v>934.3915</v>
       </c>
       <c r="M2">
         <v>58.35269727394594</v>
@@ -558,48 +583,63 @@
         <v>-172.04</v>
       </c>
       <c r="P2">
-        <v>551.8702738250047</v>
+        <v>720.5987976872776</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <v>1</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>9</v>
       </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
         <v>5</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
         <v>0</v>
       </c>
     </row>
@@ -634,13 +674,13 @@
         <v>52.3</v>
       </c>
       <c r="J3">
-        <v>478.4</v>
+        <v>509.6052800000001</v>
       </c>
       <c r="K3">
         <v>1607.876</v>
       </c>
       <c r="L3">
-        <v>479.85</v>
+        <v>589.15815</v>
       </c>
       <c r="M3">
         <v>71.64853752287416</v>
@@ -652,31 +692,31 @@
         <v>-119.35</v>
       </c>
       <c r="P3">
-        <v>456.0105505869387</v>
+        <v>597.1932572991199</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R3">
+        <v>7</v>
+      </c>
+      <c r="S3">
         <v>4</v>
       </c>
-      <c r="S3">
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="V3">
+        <v>6</v>
+      </c>
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="U3">
-        <v>3</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>2</v>
-      </c>
       <c r="X3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>2</v>
@@ -688,13 +728,28 @@
         <v>2</v>
       </c>
       <c r="AB3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AD3">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>5</v>
+      </c>
+      <c r="AG3">
+        <v>2</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +783,13 @@
         <v>43.89</v>
       </c>
       <c r="J4">
-        <v>500.2</v>
+        <v>617.3533500000001</v>
       </c>
       <c r="K4">
         <v>1616.549</v>
       </c>
       <c r="L4">
-        <v>477.75</v>
+        <v>603.34575</v>
       </c>
       <c r="M4">
         <v>68.48727319518591</v>
@@ -746,49 +801,64 @@
         <v>-108.02</v>
       </c>
       <c r="P4">
-        <v>504.4503673023324</v>
+        <v>659.2753101271943</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="T4">
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
         <v>5</v>
       </c>
-      <c r="U4">
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
         <v>5</v>
       </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>2</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>4</v>
-      </c>
-      <c r="Z4">
-        <v>6</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>6</v>
-      </c>
-      <c r="AC4">
-        <v>1</v>
-      </c>
-      <c r="AD4">
-        <v>4</v>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>3</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -822,13 +892,13 @@
         <v>48.44</v>
       </c>
       <c r="J5">
-        <v>488</v>
+        <v>581.0123</v>
       </c>
       <c r="K5">
         <v>1799.767</v>
       </c>
       <c r="L5">
-        <v>505.47</v>
+        <v>697.8593999999999</v>
       </c>
       <c r="M5">
         <v>72.07494269303595</v>
@@ -840,19 +910,19 @@
         <v>-117.81</v>
       </c>
       <c r="P5">
-        <v>419.1913931163653</v>
+        <v>546.779032564152</v>
       </c>
       <c r="Q5">
         <v>4</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -864,24 +934,39 @@
         <v>1</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
         <v>4</v>
       </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
       <c r="AB5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5">
         <v>2</v>
       </c>
       <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>2</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
         <v>1</v>
       </c>
     </row>
@@ -916,13 +1001,13 @@
         <v>45.48999999999999</v>
       </c>
       <c r="J6">
-        <v>482.4</v>
+        <v>595.40394</v>
       </c>
       <c r="K6">
         <v>1792.849</v>
       </c>
       <c r="L6">
-        <v>490.14</v>
+        <v>609.42525</v>
       </c>
       <c r="M6">
         <v>69.87816556548688</v>
@@ -934,25 +1019,25 @@
         <v>-167.11</v>
       </c>
       <c r="P6">
-        <v>468.1293143203972</v>
+        <v>612.7304942628199</v>
       </c>
       <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>2</v>
       </c>
       <c r="V6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -961,22 +1046,37 @@
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>2</v>
+      </c>
+      <c r="AI6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1010,13 +1110,13 @@
         <v>47.8</v>
       </c>
       <c r="J7">
-        <v>484.2</v>
+        <v>556.27905</v>
       </c>
       <c r="K7">
         <v>1687.156</v>
       </c>
       <c r="L7">
-        <v>521.64</v>
+        <v>710.5098</v>
       </c>
       <c r="M7">
         <v>65.9372744814941</v>
@@ -1028,25 +1128,25 @@
         <v>-111.94</v>
       </c>
       <c r="P7">
-        <v>409.8276502456497</v>
+        <v>533.4894740675447</v>
       </c>
       <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
         <v>6</v>
       </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
       <c r="U7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>4</v>
@@ -1058,19 +1158,34 @@
         <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>1</v>
       </c>
       <c r="AD7">
         <v>2</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>2</v>
+      </c>
+      <c r="AG7">
+        <v>3</v>
+      </c>
+      <c r="AH7">
+        <v>2</v>
+      </c>
+      <c r="AI7">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1104,13 +1219,13 @@
         <v>43.02</v>
       </c>
       <c r="J8">
-        <v>461</v>
+        <v>453.2185500000001</v>
       </c>
       <c r="K8">
         <v>1772.104</v>
       </c>
       <c r="L8">
-        <v>483.21</v>
+        <v>536.7334</v>
       </c>
       <c r="M8">
         <v>71.27038749415638</v>
@@ -1122,49 +1237,64 @@
         <v>-215.79</v>
       </c>
       <c r="P8">
-        <v>419.8677884743024</v>
+        <v>547.6922262164622</v>
       </c>
       <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>2</v>
-      </c>
       <c r="T8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8">
+        <v>2</v>
+      </c>
+      <c r="W8">
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
         <v>6</v>
       </c>
-      <c r="W8">
-        <v>2</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>1</v>
+      </c>
+      <c r="AC8">
+        <v>4</v>
+      </c>
+      <c r="AD8">
+        <v>2</v>
+      </c>
+      <c r="AE8">
+        <v>4</v>
+      </c>
+      <c r="AF8">
+        <v>1</v>
+      </c>
+      <c r="AG8">
         <v>5</v>
       </c>
-      <c r="Z8">
-        <v>6</v>
-      </c>
-      <c r="AA8">
-        <v>2</v>
-      </c>
-      <c r="AB8">
-        <v>6</v>
-      </c>
-      <c r="AC8">
-        <v>1</v>
-      </c>
-      <c r="AD8">
-        <v>5</v>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1198,13 +1328,13 @@
         <v>35.44</v>
       </c>
       <c r="J9">
-        <v>466.6</v>
+        <v>543.5409500000001</v>
       </c>
       <c r="K9">
         <v>1304.797</v>
       </c>
       <c r="L9">
-        <v>486.36</v>
+        <v>643.7347</v>
       </c>
       <c r="M9">
         <v>73.51880313171837</v>
@@ -1216,49 +1346,64 @@
         <v>-206.49</v>
       </c>
       <c r="P9">
-        <v>424.0815504806166</v>
+        <v>553.9488121816047</v>
       </c>
       <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
         <v>8</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
       <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9">
+        <v>4</v>
+      </c>
+      <c r="X9">
         <v>5</v>
       </c>
-      <c r="V9">
-        <v>1</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>2</v>
-      </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9">
+        <v>2</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>4</v>
+      </c>
+      <c r="AI9">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1292,13 +1437,13 @@
         <v>33.72</v>
       </c>
       <c r="J10">
-        <v>461</v>
+        <v>534.37663</v>
       </c>
       <c r="K10">
         <v>1298.418</v>
       </c>
       <c r="L10">
-        <v>424.2</v>
+        <v>498.1536</v>
       </c>
       <c r="M10">
         <v>78.11961852877056</v>
@@ -1310,49 +1455,64 @@
         <v>-202.25</v>
       </c>
       <c r="P10">
-        <v>430.6946325688878</v>
+        <v>561.0475694776893</v>
       </c>
       <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
         <v>9</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>7</v>
       </c>
-      <c r="V10">
-        <v>3</v>
-      </c>
-      <c r="W10">
-        <v>2</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
         <v>4</v>
       </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>3</v>
-      </c>
-      <c r="AA10">
-        <v>2</v>
-      </c>
       <c r="AB10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD10">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>2</v>
+      </c>
+      <c r="AH10">
+        <v>5</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1386,13 +1546,13 @@
         <v>34.62</v>
       </c>
       <c r="J11">
-        <v>474.2</v>
+        <v>448.04203</v>
       </c>
       <c r="K11">
         <v>1977.222</v>
       </c>
       <c r="L11">
-        <v>451.92</v>
+        <v>478.6411</v>
       </c>
       <c r="M11">
         <v>92.6296920659569</v>
@@ -1404,34 +1564,34 @@
         <v>-252.26</v>
       </c>
       <c r="P11">
-        <v>346.0176116961227</v>
+        <v>451.9904536844031</v>
       </c>
       <c r="Q11">
         <v>10</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S11">
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>9</v>
       </c>
-      <c r="V11">
-        <v>1</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1446,6 +1606,21 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>0</v>
       </c>
     </row>
